--- a/autobus.xlsx
+++ b/autobus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katusha/Desktop/Shend-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC961C99-F0F9-C24B-9FB0-C08B9893591C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EF9F10-85C5-C74A-BC74-9D558CDB0209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{41160989-5321-7247-8043-61973647E875}"/>
   </bookViews>
@@ -760,15 +760,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C579A7-109D-E04B-83C3-80988DEEDC32}">
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1412,7 +1412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -1524,15 +1524,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95">
+        <v>1341588443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
